--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T21:30:34+00:00</t>
+    <t>2022-08-19T07:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -754,42 +754,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.34375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="41.33984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="20.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.20703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.2109375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="24.78515625" customWidth="true" bestFit="true"/>
   </cols>
@@ -1243,7 +1243,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1459,7 +1459,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1569,7 +1569,7 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1677,7 +1677,7 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:11:06+00:00</t>
+    <t>2022-09-30T12:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:26:31+00:00</t>
+    <t>2022-10-12T01:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -248,10 +248,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>XTN</t>
@@ -1004,13 +1000,13 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>27</v>
@@ -1018,7 +1014,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1026,28 +1022,28 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1098,13 +1094,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1116,7 +1112,7 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>72</v>
@@ -1124,11 +1120,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1147,16 +1143,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1194,19 +1190,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1218,13 +1214,13 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>72</v>
@@ -1232,7 +1228,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1240,10 +1236,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1252,16 +1248,16 @@
         <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="J5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="J5" t="s" s="2">
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1288,14 +1284,14 @@
         <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="X5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="X5" t="s" s="2">
+      <c r="Y5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Y5" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="Z5" t="s" s="2">
         <v>72</v>
       </c>
@@ -1312,33 +1308,33 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AI5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AI5" t="s" s="2">
+      <c r="AJ5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AJ5" t="s" s="2">
+      <c r="AK5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AK5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1346,34 +1342,34 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>72</v>
@@ -1422,33 +1418,33 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AK6" t="s" s="2">
+      <c r="AL6" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1459,31 +1455,31 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="I7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>72</v>
@@ -1508,14 +1504,14 @@
         <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Y7" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y7" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="Z7" t="s" s="2">
         <v>72</v>
       </c>
@@ -1532,33 +1528,33 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AK7" t="s" s="2">
+      <c r="AL7" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1569,7 +1565,7 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1578,19 +1574,19 @@
         <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1640,25 +1636,25 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -1666,7 +1662,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1677,7 +1673,7 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1686,16 +1682,16 @@
         <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1746,28 +1742,28 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AK9" t="s" s="2">
+      <c r="AL9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T01:19:25+00:00</t>
+    <t>2022-12-30T12:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -741,7 +744,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -751,43 +754,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.34765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="102.44921875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="41.33984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="20.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.0" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="20.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.2109375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.78515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.2109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="24.78515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -905,139 +908,145 @@
       <c r="AL1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AM1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>83</v>
@@ -1045,105 +1054,108 @@
       <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>90</v>
@@ -1154,101 +1166,104 @@
       <c r="M4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>100</v>
@@ -1259,32 +1274,32 @@
       <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
         <v>104</v>
@@ -1293,31 +1308,31 @@
         <v>105</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>107</v>
@@ -1331,36 +1346,39 @@
       <c r="AL5" t="s" s="2">
         <v>110</v>
       </c>
+      <c r="AM5" t="s" s="2">
+        <v>111</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>113</v>
@@ -1372,68 +1390,68 @@
         <v>115</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>117</v>
@@ -1441,36 +1459,39 @@
       <c r="AL6" t="s" s="2">
         <v>118</v>
       </c>
+      <c r="AM6" t="s" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>121</v>
@@ -1482,68 +1503,68 @@
         <v>123</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s" s="2">
         <v>125</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>127</v>
@@ -1551,33 +1572,36 @@
       <c r="AL7" t="s" s="2">
         <v>128</v>
       </c>
+      <c r="AM7" t="s" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>131</v>
@@ -1588,104 +1612,107 @@
       <c r="M8" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>136</v>
@@ -1693,77 +1720,80 @@
       <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>140</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-30T12:43:23+00:00</t>
+    <t>2023-03-16T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
@@ -940,13 +944,13 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1006,16 +1010,16 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>27</v>
@@ -1023,10 +1027,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1037,7 +1041,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1049,13 +1053,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1106,13 +1110,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1124,7 +1128,7 @@
         <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>73</v>
@@ -1132,14 +1136,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1158,16 +1162,16 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1205,19 +1209,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1229,13 +1233,13 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>73</v>
@@ -1243,10 +1247,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1254,10 +1258,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1266,16 +1270,16 @@
         <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1302,13 +1306,13 @@
         <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>73</v>
@@ -1326,36 +1330,36 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1363,10 +1367,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1375,22 +1379,22 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>73</v>
@@ -1439,36 +1443,36 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1479,31 +1483,31 @@
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>73</v>
@@ -1528,13 +1532,13 @@
         <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>73</v>
@@ -1552,36 +1556,36 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1592,7 +1596,7 @@
         <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1601,19 +1605,19 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1663,25 +1667,25 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>73</v>
@@ -1689,10 +1693,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1703,7 +1707,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1712,16 +1716,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1772,28 +1776,28 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T10:02:34+00:00</t>
+    <t>2023-03-16T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="144">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-location-contact-point</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-location-contact-point</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T12:56:05+00:00</t>
+    <t>2023-12-08T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,6 +255,10 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>XTN</t>
@@ -575,10 +579,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1013,13 +1017,13 @@
         <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>27</v>
@@ -1027,10 +1031,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1041,7 +1045,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1053,13 +1057,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1110,13 +1114,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1128,7 +1132,7 @@
         <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>73</v>
@@ -1136,14 +1140,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1162,16 +1166,16 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1209,19 +1213,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1233,13 +1237,13 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>73</v>
@@ -1247,10 +1251,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1258,10 +1262,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1270,16 +1274,16 @@
         <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1306,13 +1310,13 @@
         <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>73</v>
@@ -1330,36 +1334,36 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1367,10 +1371,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1379,22 +1383,22 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>73</v>
@@ -1443,36 +1447,36 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1483,31 +1487,31 @@
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>73</v>
@@ -1532,13 +1536,13 @@
         <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>73</v>
@@ -1556,36 +1560,36 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1596,7 +1600,7 @@
         <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1605,19 +1609,19 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1667,25 +1671,25 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>73</v>
@@ -1693,10 +1697,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1707,7 +1711,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1716,16 +1720,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1776,28 +1780,28 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="145">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T16:41:46+00:00</t>
+    <t>2024-12-11T17:14:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -232,9 +238,6 @@
   </si>
   <si>
     <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -591,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -689,21 +692,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -743,6 +746,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -803,1005 +814,1005 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-omrs-location-contact-point.xlsx
+++ b/StructureDefinition-omrs-location-contact-point.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:14:00+00:00</t>
+    <t>2024-12-11T17:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
